--- a/grocery_app/01_scripts/recipebookV3.xlsx
+++ b/grocery_app/01_scripts/recipebookV3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lewis\venv\python310\python-masterclass-remaster-shared\personal_projects\02_grocery_app\02_03_scripts_and_analyses\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lewis\venv\python310\python-masterclass-remaster-shared\personal_projects\grocery_app\01_scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0C39CB-5BC0-4711-AAAA-857558FAEF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8802E796-5053-4D4E-B402-B48458600ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="40" windowWidth="16830" windowHeight="10040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Database" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="241">
   <si>
     <t>Recipe_Title</t>
   </si>
@@ -737,6 +737,12 @@
   </si>
   <si>
     <t>Plum cake *JOC</t>
+  </si>
+  <si>
+    <t>Sauteed Veggie</t>
+  </si>
+  <si>
+    <t>sauteed veggie</t>
   </si>
 </sst>
 </file>
@@ -1099,15 +1105,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G244"/>
+  <dimension ref="A1:G245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
-      <selection activeCell="G246" sqref="G246"/>
+    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
+      <selection activeCell="J201" sqref="J201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.1796875" customWidth="1"/>
+    <col min="2" max="2" width="17.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -4535,7 +4542,7 @@
         <v>18</v>
       </c>
       <c r="F154" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="G154" t="s">
         <v>176</v>
@@ -4558,7 +4565,7 @@
         <v>121</v>
       </c>
       <c r="F155" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="G155" t="s">
         <v>176</v>
@@ -4581,7 +4588,7 @@
         <v>39</v>
       </c>
       <c r="F156" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="G156" t="s">
         <v>176</v>
@@ -4604,7 +4611,7 @@
         <v>14</v>
       </c>
       <c r="F157" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="G157" t="s">
         <v>176</v>
@@ -4627,7 +4634,7 @@
         <v>18</v>
       </c>
       <c r="F158" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="G158" t="s">
         <v>176</v>
@@ -4650,7 +4657,7 @@
         <v>121</v>
       </c>
       <c r="F159" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="G159" t="s">
         <v>176</v>
@@ -6609,6 +6616,26 @@
       </c>
       <c r="G244" t="s">
         <v>237</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A245" t="s">
+        <v>239</v>
+      </c>
+      <c r="B245" t="s">
+        <v>240</v>
+      </c>
+      <c r="C245">
+        <v>1</v>
+      </c>
+      <c r="D245" t="s">
+        <v>16</v>
+      </c>
+      <c r="E245" t="s">
+        <v>14</v>
+      </c>
+      <c r="F245" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/grocery_app/01_scripts/recipebookV3.xlsx
+++ b/grocery_app/01_scripts/recipebookV3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lewis\venv\python310\python-masterclass-remaster-shared\personal_projects\grocery_app\01_scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8802E796-5053-4D4E-B402-B48458600ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDEF50E-AF45-4B1B-A105-91F21A4FFC9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="40" windowWidth="16830" windowHeight="10040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Database" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="276">
   <si>
     <t>Recipe_Title</t>
   </si>
@@ -313,18 +313,6 @@
     <t>Japanese milk bread</t>
   </si>
   <si>
-    <t>active dry yeast</t>
-  </si>
-  <si>
-    <t>https://cooking.nytimes.com/recipes/1016275-japanese-milk-bread</t>
-  </si>
-  <si>
-    <t>bread flour</t>
-  </si>
-  <si>
-    <t>whole milk</t>
-  </si>
-  <si>
     <t>Kitsune Udon</t>
   </si>
   <si>
@@ -652,21 +640,9 @@
     <t>salad</t>
   </si>
   <si>
-    <t>Banana Bread *JOC</t>
-  </si>
-  <si>
-    <t>https://www.justonecookbook.com/banana-bread/</t>
-  </si>
-  <si>
     <t>baking powder</t>
   </si>
   <si>
-    <t>banana</t>
-  </si>
-  <si>
-    <t>raisin</t>
-  </si>
-  <si>
     <t>Miso Soup *JOC</t>
   </si>
   <si>
@@ -743,13 +719,142 @@
   </si>
   <si>
     <t>sauteed veggie</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>honey</t>
+  </si>
+  <si>
+    <t>yeast</t>
+  </si>
+  <si>
+    <t>Dry milk powder</t>
+  </si>
+  <si>
+    <t>unsalted butter</t>
+  </si>
+  <si>
+    <t>https://www.justonecookbook.com/japanese-milk-bread-shokupan/</t>
+  </si>
+  <si>
+    <t>Chanko Nabe</t>
+  </si>
+  <si>
+    <t>https://www.justonecookbook.com/chanko-nabe-sumo-stew/#wprm-recipe-container-57971</t>
+  </si>
+  <si>
+    <t>ginger juice</t>
+  </si>
+  <si>
+    <t>Tbsp</t>
+  </si>
+  <si>
+    <t>white miso</t>
+  </si>
+  <si>
+    <t>ground chicken</t>
+  </si>
+  <si>
+    <t>corn starch</t>
+  </si>
+  <si>
+    <t>panko bread crumb</t>
+  </si>
+  <si>
+    <t>cod filet</t>
+  </si>
+  <si>
+    <t>pork belly</t>
+  </si>
+  <si>
+    <t>tofu (medium)</t>
+  </si>
+  <si>
+    <t>napa cabbage</t>
+  </si>
+  <si>
+    <t>shiitake mushroom</t>
+  </si>
+  <si>
+    <t>shortgrain rice</t>
+  </si>
+  <si>
+    <t>https://www.justonecookbook.com/sesame-miso-hot-pot/</t>
+  </si>
+  <si>
+    <t>sesame miso hot pot</t>
+  </si>
+  <si>
+    <t>Japanese mustard green</t>
+  </si>
+  <si>
+    <t>stalks</t>
+  </si>
+  <si>
+    <t>garlic chives</t>
+  </si>
+  <si>
+    <t>bunch</t>
+  </si>
+  <si>
+    <t>shimeji mushroom</t>
+  </si>
+  <si>
+    <t>maitake mushroom</t>
+  </si>
+  <si>
+    <t>aburrage (deep fried tofu pouch)</t>
+  </si>
+  <si>
+    <t>pieces</t>
+  </si>
+  <si>
+    <t>pork thinkly sliced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">miso </t>
+  </si>
+  <si>
+    <t>Japanese chicken curry</t>
+  </si>
+  <si>
+    <t>onion</t>
+  </si>
+  <si>
+    <t>https://www.justonecookbook.com/simple-chicken-curry/#wprm-recipe-container-59001</t>
+  </si>
+  <si>
+    <t>Yukon gold potato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apple </t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>ketchup</t>
+  </si>
+  <si>
+    <t>curry roux</t>
+  </si>
+  <si>
+    <t>Oyakodon</t>
+  </si>
+  <si>
+    <t>dashi</t>
+  </si>
+  <si>
+    <t>https://www.justonecookbook.com/oyakodon/#wprm-recipe-container-60584</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -761,6 +866,20 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -795,16 +914,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1105,15 +1227,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G245"/>
+  <dimension ref="A1:G291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
-      <selection activeCell="J201" sqref="J201"/>
+    <sheetView tabSelected="1" topLeftCell="A270" workbookViewId="0">
+      <selection activeCell="A283" sqref="A283:A290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.1796875" customWidth="1"/>
+    <col min="1" max="1" width="23.1796875" customWidth="1"/>
     <col min="2" max="2" width="17.6328125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1159,7 +1281,7 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1527,7 +1649,7 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="2" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2068,7 +2190,7 @@
       <c r="F44" t="s">
         <v>11</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="2" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2635,7 +2757,7 @@
       <c r="F71" t="s">
         <v>11</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G71" s="2" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2658,7 +2780,7 @@
       <c r="F72" t="s">
         <v>11</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G72" s="2" t="s">
         <v>83</v>
       </c>
     </row>
@@ -3012,22 +3134,19 @@
         <v>96</v>
       </c>
       <c r="B88" t="s">
-        <v>97</v>
+        <v>233</v>
       </c>
       <c r="C88">
-        <v>2</v>
+        <v>250</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
-      </c>
-      <c r="E88" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F88" t="s">
         <v>50</v>
       </c>
-      <c r="G88" t="s">
-        <v>98</v>
+      <c r="G88" s="2" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
@@ -3035,22 +3154,19 @@
         <v>96</v>
       </c>
       <c r="B89" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="C89">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="D89" t="s">
         <v>31</v>
       </c>
-      <c r="E89" t="s">
-        <v>18</v>
-      </c>
       <c r="F89" t="s">
         <v>50</v>
       </c>
-      <c r="G89" t="s">
-        <v>98</v>
+      <c r="G89" s="2" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
@@ -3058,22 +3174,19 @@
         <v>96</v>
       </c>
       <c r="B90" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="C90">
-        <v>325</v>
+        <v>7</v>
       </c>
       <c r="D90" t="s">
         <v>31</v>
       </c>
-      <c r="E90" t="s">
-        <v>18</v>
-      </c>
       <c r="F90" t="s">
         <v>50</v>
       </c>
-      <c r="G90" t="s">
-        <v>98</v>
+      <c r="G90" s="2" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
@@ -3081,22 +3194,19 @@
         <v>96</v>
       </c>
       <c r="B91" t="s">
-        <v>38</v>
+        <v>234</v>
       </c>
       <c r="C91">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
         <v>31</v>
       </c>
-      <c r="E91" t="s">
-        <v>39</v>
-      </c>
       <c r="F91" t="s">
         <v>50</v>
       </c>
-      <c r="G91" t="s">
-        <v>98</v>
+      <c r="G91" s="2" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
@@ -3104,22 +3214,19 @@
         <v>96</v>
       </c>
       <c r="B92" t="s">
-        <v>41</v>
+        <v>235</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D92" t="s">
-        <v>16</v>
-      </c>
-      <c r="E92" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F92" t="s">
         <v>50</v>
       </c>
-      <c r="G92" t="s">
-        <v>98</v>
+      <c r="G92" s="2" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
@@ -3127,22 +3234,19 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="C93">
-        <v>1</v>
+        <v>350</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
-      </c>
-      <c r="E93" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F93" t="s">
         <v>50</v>
       </c>
-      <c r="G93" t="s">
-        <v>98</v>
+      <c r="G93" s="2" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
@@ -3150,22 +3254,19 @@
         <v>96</v>
       </c>
       <c r="B94" t="s">
-        <v>77</v>
+        <v>236</v>
       </c>
       <c r="C94">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
-      </c>
-      <c r="E94" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F94" t="s">
         <v>50</v>
       </c>
-      <c r="G94" t="s">
-        <v>98</v>
+      <c r="G94" s="2" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
@@ -3173,105 +3274,102 @@
         <v>96</v>
       </c>
       <c r="B95" t="s">
-        <v>100</v>
+        <v>237</v>
       </c>
       <c r="C95">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="D95" t="s">
-        <v>82</v>
-      </c>
-      <c r="E95" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F95" t="s">
         <v>50</v>
       </c>
-      <c r="G95" t="s">
-        <v>98</v>
+      <c r="G95" s="2" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B96" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C96">
-        <v>120</v>
+        <v>4</v>
       </c>
       <c r="D96" t="s">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="E96" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F96" t="s">
-        <v>50</v>
-      </c>
-      <c r="G96" t="s">
-        <v>98</v>
+        <v>11</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="C97">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D97" t="s">
         <v>16</v>
       </c>
       <c r="E97" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F97" t="s">
         <v>11</v>
       </c>
       <c r="G97" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D98" t="s">
         <v>16</v>
       </c>
       <c r="E98" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F98" t="s">
         <v>11</v>
       </c>
       <c r="G98" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
         <v>101</v>
       </c>
-      <c r="B99" t="s">
-        <v>104</v>
-      </c>
       <c r="C99">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="D99" t="s">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="E99" t="s">
         <v>27</v>
@@ -3280,21 +3378,21 @@
         <v>11</v>
       </c>
       <c r="G99" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B100" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C100">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D100" t="s">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="E100" t="s">
         <v>27</v>
@@ -3303,21 +3401,21 @@
         <v>11</v>
       </c>
       <c r="G100" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B101" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D101" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E101" t="s">
         <v>27</v>
@@ -3326,110 +3424,110 @@
         <v>11</v>
       </c>
       <c r="G101" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B102" t="s">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="C102">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="D102" t="s">
         <v>9</v>
       </c>
       <c r="E102" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F102" t="s">
         <v>11</v>
       </c>
       <c r="G102" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B103" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="C103">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="D103" t="s">
         <v>9</v>
       </c>
       <c r="E103" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F103" t="s">
         <v>11</v>
       </c>
       <c r="G103" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B104" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="C104">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D104" t="s">
         <v>9</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F104" t="s">
         <v>11</v>
       </c>
       <c r="G104" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B105" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="C105">
         <v>1</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E105" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F105" t="s">
         <v>11</v>
       </c>
       <c r="G105" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B106" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D106" t="s">
         <v>16</v>
@@ -3441,87 +3539,87 @@
         <v>11</v>
       </c>
       <c r="G106" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B107" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C107">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D107" t="s">
         <v>16</v>
       </c>
       <c r="E107" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F107" t="s">
         <v>11</v>
       </c>
-      <c r="G107" t="s">
-        <v>103</v>
+      <c r="G107" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>110</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108" t="s">
+        <v>16</v>
+      </c>
+      <c r="E108" t="s">
+        <v>14</v>
+      </c>
+      <c r="F108" t="s">
+        <v>11</v>
+      </c>
+      <c r="G108" t="s">
         <v>111</v>
-      </c>
-      <c r="B108" t="s">
-        <v>112</v>
-      </c>
-      <c r="C108">
-        <v>5</v>
-      </c>
-      <c r="D108" t="s">
-        <v>16</v>
-      </c>
-      <c r="E108" t="s">
-        <v>14</v>
-      </c>
-      <c r="F108" t="s">
-        <v>11</v>
-      </c>
-      <c r="G108" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C109">
-        <v>1</v>
+        <v>1500</v>
       </c>
       <c r="D109" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="E109" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F109" t="s">
         <v>11</v>
       </c>
       <c r="G109" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B110" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C110">
-        <v>1500</v>
+        <v>60</v>
       </c>
       <c r="D110" t="s">
         <v>31</v>
@@ -3533,245 +3631,245 @@
         <v>11</v>
       </c>
       <c r="G110" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B111" t="s">
+        <v>116</v>
+      </c>
+      <c r="C111">
+        <v>3</v>
+      </c>
+      <c r="D111" t="s">
+        <v>16</v>
+      </c>
+      <c r="E111" t="s">
+        <v>117</v>
+      </c>
+      <c r="F111" t="s">
+        <v>11</v>
+      </c>
+      <c r="G111" t="s">
         <v>118</v>
-      </c>
-      <c r="C111">
-        <v>60</v>
-      </c>
-      <c r="D111" t="s">
-        <v>31</v>
-      </c>
-      <c r="E111" t="s">
-        <v>21</v>
-      </c>
-      <c r="F111" t="s">
-        <v>11</v>
-      </c>
-      <c r="G111" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B112" t="s">
+        <v>119</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="D112" t="s">
+        <v>16</v>
+      </c>
+      <c r="E112" t="s">
+        <v>14</v>
+      </c>
+      <c r="F112" t="s">
+        <v>11</v>
+      </c>
+      <c r="G112" t="s">
         <v>120</v>
-      </c>
-      <c r="C112">
-        <v>3</v>
-      </c>
-      <c r="D112" t="s">
-        <v>16</v>
-      </c>
-      <c r="E112" t="s">
-        <v>121</v>
-      </c>
-      <c r="F112" t="s">
-        <v>11</v>
-      </c>
-      <c r="G112" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B113" t="s">
-        <v>123</v>
+        <v>54</v>
       </c>
       <c r="C113">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D113" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E113" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="F113" t="s">
         <v>11</v>
       </c>
       <c r="G113" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B114" t="s">
-        <v>54</v>
+        <v>122</v>
       </c>
       <c r="C114">
         <v>3</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E114" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F114" t="s">
         <v>11</v>
       </c>
       <c r="G114" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B115" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C115">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="D115" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E115" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F115" t="s">
         <v>11</v>
       </c>
       <c r="G115" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B116" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C116">
-        <v>4.5</v>
+        <v>40</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="E116" t="s">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="F116" t="s">
         <v>11</v>
       </c>
       <c r="G116" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B117" t="s">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="C117">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="D117" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="E117" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F117" t="s">
         <v>11</v>
       </c>
       <c r="G117" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B118" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="C118">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D118" t="s">
         <v>9</v>
       </c>
       <c r="E118" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F118" t="s">
         <v>11</v>
       </c>
       <c r="G118" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B119" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C119">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F119" t="s">
         <v>11</v>
       </c>
       <c r="G119" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B120" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C120">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="D120" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="E120" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F120" t="s">
         <v>11</v>
       </c>
       <c r="G120" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B121" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C121">
         <v>1000</v>
@@ -3786,110 +3884,110 @@
         <v>11</v>
       </c>
       <c r="G121" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B122" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C122">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="D122" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="E122" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F122" t="s">
         <v>11</v>
       </c>
       <c r="G122" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B123" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C123">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="F123" t="s">
         <v>11</v>
       </c>
       <c r="G123" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B124" t="s">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="C124">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D124" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E124" t="s">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="F124" t="s">
         <v>11</v>
       </c>
       <c r="G124" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B125" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="C125">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E125" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F125" t="s">
         <v>11</v>
       </c>
       <c r="G125" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="B126" t="s">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="C126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D126" t="s">
         <v>16</v>
@@ -3898,7 +3996,7 @@
         <v>14</v>
       </c>
       <c r="F126" t="s">
-        <v>11</v>
+        <v>145</v>
       </c>
       <c r="G126" t="s">
         <v>146</v>
@@ -3906,11 +4004,11 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
+        <v>143</v>
+      </c>
+      <c r="B127" t="s">
         <v>147</v>
       </c>
-      <c r="B127" t="s">
-        <v>148</v>
-      </c>
       <c r="C127">
         <v>1</v>
       </c>
@@ -3918,21 +4016,21 @@
         <v>16</v>
       </c>
       <c r="E127" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F127" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G127" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B128" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -3941,67 +4039,67 @@
         <v>16</v>
       </c>
       <c r="E128" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F128" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G128" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B129" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C129">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D129" t="s">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="E129" t="s">
         <v>14</v>
       </c>
       <c r="F129" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G129" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B130" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C130">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="D130" t="s">
-        <v>154</v>
+        <v>9</v>
       </c>
       <c r="E130" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G130" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B131" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C131">
         <v>3</v>
@@ -4010,205 +4108,205 @@
         <v>9</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F131" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G131" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B132" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="C132">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E132" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F132" t="s">
-        <v>149</v>
-      </c>
-      <c r="G132" t="s">
-        <v>150</v>
+        <v>154</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B133" t="s">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="C133">
         <v>1</v>
       </c>
       <c r="D133" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E133" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="F133" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G133" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B134" t="s">
-        <v>160</v>
+        <v>41</v>
       </c>
       <c r="C134">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E134" t="s">
-        <v>121</v>
+        <v>39</v>
       </c>
       <c r="F134" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G134" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B135" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C135">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D135" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="E135" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="F135" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G135" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
+        <v>153</v>
+      </c>
+      <c r="B136" t="s">
         <v>157</v>
       </c>
-      <c r="B136" t="s">
-        <v>42</v>
-      </c>
       <c r="C136">
-        <v>4</v>
+        <v>0.25</v>
       </c>
       <c r="D136" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="E136" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="F136" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G136" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B137" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="C137">
-        <v>0.25</v>
+        <v>6</v>
       </c>
       <c r="D137" t="s">
         <v>9</v>
       </c>
       <c r="E137" t="s">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="F137" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G137" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B138" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C138">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D138" t="s">
         <v>9</v>
       </c>
       <c r="E138" t="s">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="F138" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G138" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B139" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E139" t="s">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="F139" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G139" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B140" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -4220,18 +4318,18 @@
         <v>14</v>
       </c>
       <c r="F140" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G140" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B141" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -4243,18 +4341,18 @@
         <v>14</v>
       </c>
       <c r="F141" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G141" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B142" t="s">
-        <v>165</v>
+        <v>95</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -4266,116 +4364,116 @@
         <v>14</v>
       </c>
       <c r="F142" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G142" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B143" t="s">
-        <v>95</v>
+        <v>163</v>
       </c>
       <c r="C143">
         <v>1</v>
       </c>
       <c r="D143" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="E143" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>158</v>
-      </c>
-      <c r="G143" t="s">
-        <v>159</v>
+        <v>11</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B144" t="s">
-        <v>167</v>
+        <v>41</v>
       </c>
       <c r="C144">
         <v>1</v>
       </c>
       <c r="D144" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="F144" t="s">
         <v>11</v>
       </c>
       <c r="G144" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B145" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C145">
         <v>1</v>
       </c>
       <c r="D145" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="E145" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="F145" t="s">
         <v>11</v>
       </c>
       <c r="G145" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B146" t="s">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c r="C146">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D146" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="E146" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F146" t="s">
         <v>11</v>
       </c>
       <c r="G146" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B147" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C147">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="E147" t="s">
         <v>27</v>
@@ -4384,136 +4482,136 @@
         <v>11</v>
       </c>
       <c r="G147" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
+        <v>162</v>
+      </c>
+      <c r="B148" t="s">
         <v>166</v>
       </c>
-      <c r="B148" t="s">
-        <v>169</v>
-      </c>
       <c r="C148">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="D148" t="s">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="E148" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F148" t="s">
         <v>11</v>
       </c>
       <c r="G148" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B149" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C149">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="D149" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="E149" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F149" t="s">
         <v>11</v>
       </c>
       <c r="G149" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B150" t="s">
-        <v>171</v>
+        <v>93</v>
       </c>
       <c r="C150">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E150" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F150" t="s">
         <v>11</v>
       </c>
       <c r="G150" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B151" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="C151">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D151" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E151" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F151" t="s">
         <v>11</v>
       </c>
       <c r="G151" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B152" t="s">
-        <v>19</v>
+        <v>168</v>
       </c>
       <c r="C152">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>169</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F152" t="s">
         <v>11</v>
       </c>
       <c r="G152" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B153" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C153">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D153" t="s">
-        <v>173</v>
+        <v>9</v>
       </c>
       <c r="E153" t="s">
         <v>18</v>
@@ -4521,390 +4619,390 @@
       <c r="F153" t="s">
         <v>11</v>
       </c>
-      <c r="G153" t="s">
-        <v>168</v>
+      <c r="G153" s="2" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B154" t="s">
-        <v>175</v>
+        <v>65</v>
       </c>
       <c r="C154">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D154" t="s">
         <v>9</v>
       </c>
       <c r="E154" t="s">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="F154" t="s">
         <v>11</v>
       </c>
       <c r="G154" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B155" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C155">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E155" t="s">
-        <v>121</v>
+        <v>39</v>
       </c>
       <c r="F155" t="s">
         <v>11</v>
       </c>
       <c r="G155" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B156" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="C156">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D156" t="s">
         <v>16</v>
       </c>
       <c r="E156" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="F156" t="s">
         <v>11</v>
       </c>
       <c r="G156" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B157" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D157" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E157" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F157" t="s">
         <v>11</v>
       </c>
       <c r="G157" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B158" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C158">
         <v>1</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E158" t="s">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="F158" t="s">
         <v>11</v>
       </c>
       <c r="G158" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
+        <v>173</v>
+      </c>
+      <c r="B159" t="s">
+        <v>85</v>
+      </c>
+      <c r="C159">
+        <v>2</v>
+      </c>
+      <c r="D159" t="s">
+        <v>16</v>
+      </c>
+      <c r="E159" t="s">
+        <v>117</v>
+      </c>
+      <c r="F159" t="s">
+        <v>11</v>
+      </c>
+      <c r="G159" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B159" t="s">
-        <v>36</v>
-      </c>
-      <c r="C159">
-        <v>1</v>
-      </c>
-      <c r="D159" t="s">
-        <v>16</v>
-      </c>
-      <c r="E159" t="s">
-        <v>121</v>
-      </c>
-      <c r="F159" t="s">
-        <v>11</v>
-      </c>
-      <c r="G159" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B160" t="s">
-        <v>85</v>
+        <v>175</v>
       </c>
       <c r="C160">
         <v>2</v>
       </c>
       <c r="D160" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E160" t="s">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="F160" t="s">
         <v>11</v>
       </c>
       <c r="G160" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B161" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C161">
-        <v>2</v>
+        <v>650</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E161" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F161" t="s">
         <v>11</v>
       </c>
       <c r="G161" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B162" t="s">
-        <v>180</v>
+        <v>71</v>
       </c>
       <c r="C162">
-        <v>650</v>
+        <v>1</v>
       </c>
       <c r="D162" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E162" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F162" t="s">
         <v>11</v>
       </c>
       <c r="G162" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B163" t="s">
-        <v>71</v>
+        <v>171</v>
       </c>
       <c r="C163">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D163" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E163" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F163" t="s">
         <v>11</v>
       </c>
       <c r="G163" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B164" t="s">
-        <v>175</v>
+        <v>116</v>
       </c>
       <c r="C164">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E164" t="s">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="F164" t="s">
         <v>11</v>
       </c>
       <c r="G164" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B165" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C165">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D165" t="s">
         <v>16</v>
       </c>
       <c r="E165" t="s">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="F165" t="s">
         <v>11</v>
       </c>
       <c r="G165" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
+        <v>173</v>
+      </c>
+      <c r="B166" t="s">
         <v>177</v>
       </c>
-      <c r="B166" t="s">
-        <v>123</v>
-      </c>
       <c r="C166">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D166" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E166" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F166" t="s">
         <v>11</v>
       </c>
       <c r="G166" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B167" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C167">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>179</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F167" t="s">
         <v>11</v>
       </c>
       <c r="G167" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B168" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C168">
         <v>1</v>
       </c>
       <c r="D168" t="s">
-        <v>183</v>
+        <v>9</v>
       </c>
       <c r="E168" t="s">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="F168" t="s">
         <v>11</v>
       </c>
       <c r="G168" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B169" t="s">
-        <v>184</v>
+        <v>42</v>
       </c>
       <c r="C169">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="E169" t="s">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="F169" t="s">
         <v>11</v>
       </c>
       <c r="G169" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B170" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="C170">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D170" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="E170" t="s">
         <v>14</v>
@@ -4913,64 +5011,64 @@
         <v>11</v>
       </c>
       <c r="G170" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B171" t="s">
-        <v>13</v>
+        <v>181</v>
       </c>
       <c r="C171">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D171" t="s">
         <v>9</v>
       </c>
       <c r="E171" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="F171" t="s">
         <v>11</v>
       </c>
       <c r="G171" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B172" t="s">
-        <v>185</v>
+        <v>15</v>
       </c>
       <c r="C172">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E172" t="s">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="F172" t="s">
         <v>11</v>
       </c>
       <c r="G172" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B173" t="s">
         <v>15</v>
       </c>
       <c r="C173">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D173" t="s">
         <v>16</v>
@@ -4982,202 +5080,202 @@
         <v>11</v>
       </c>
       <c r="G173" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>15</v>
+        <v>182</v>
       </c>
       <c r="C174">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D174" t="s">
         <v>16</v>
       </c>
       <c r="E174" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="F174" t="s">
         <v>11</v>
       </c>
       <c r="G174" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>186</v>
+        <v>17</v>
       </c>
       <c r="C175">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="D175" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E175" t="s">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="F175" t="s">
         <v>11</v>
       </c>
       <c r="G175" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B176" t="s">
-        <v>17</v>
+        <v>183</v>
       </c>
       <c r="C176">
         <v>0.5</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="E176" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F176" t="s">
         <v>11</v>
       </c>
       <c r="G176" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B177" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C177">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="D177" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="F177" t="s">
         <v>11</v>
       </c>
       <c r="G177" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B178" t="s">
-        <v>188</v>
+        <v>35</v>
       </c>
       <c r="C178">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="D178" t="s">
         <v>9</v>
       </c>
       <c r="E178" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="F178" t="s">
         <v>11</v>
       </c>
       <c r="G178" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B179" t="s">
-        <v>35</v>
+        <v>139</v>
       </c>
       <c r="C179">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="F179" t="s">
         <v>11</v>
       </c>
       <c r="G179" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B180" t="s">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="C180">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D180" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E180" t="s">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="F180" t="s">
         <v>11</v>
       </c>
       <c r="G180" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B181" t="s">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="C181">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E181" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F181" t="s">
         <v>11</v>
       </c>
       <c r="G181" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B182" t="s">
-        <v>165</v>
+        <v>95</v>
       </c>
       <c r="C182">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="D182" t="s">
         <v>16</v>
@@ -5189,130 +5287,130 @@
         <v>11</v>
       </c>
       <c r="G182" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="B183" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="C183">
-        <v>0.5</v>
+        <v>100</v>
       </c>
       <c r="D183" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="E183" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F183" t="s">
         <v>11</v>
       </c>
-      <c r="G183" t="s">
-        <v>178</v>
+      <c r="G183" s="2" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B184" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C184">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D184" t="s">
         <v>31</v>
       </c>
       <c r="E184" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="F184" t="s">
         <v>11</v>
       </c>
       <c r="G184" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B185" t="s">
-        <v>38</v>
+        <v>171</v>
       </c>
       <c r="C185">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="D185" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="E185" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="F185" t="s">
         <v>11</v>
       </c>
       <c r="G185" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="C186">
-        <v>3</v>
+        <v>0.125</v>
       </c>
       <c r="D186" t="s">
         <v>9</v>
       </c>
       <c r="E186" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F186" t="s">
         <v>11</v>
       </c>
       <c r="G186" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>191</v>
+        <v>104</v>
       </c>
       <c r="C187">
-        <v>0.125</v>
+        <v>3</v>
       </c>
       <c r="D187" t="s">
         <v>9</v>
       </c>
       <c r="E187" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F187" t="s">
         <v>11</v>
       </c>
       <c r="G187" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B188" t="s">
-        <v>108</v>
+        <v>188</v>
       </c>
       <c r="C188">
         <v>3</v>
@@ -5321,136 +5419,136 @@
         <v>9</v>
       </c>
       <c r="E188" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F188" t="s">
         <v>11</v>
       </c>
       <c r="G188" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
+        <v>185</v>
+      </c>
+      <c r="B189" t="s">
         <v>189</v>
       </c>
-      <c r="B189" t="s">
-        <v>192</v>
-      </c>
       <c r="C189">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D189" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E189" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F189" t="s">
         <v>11</v>
       </c>
       <c r="G189" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B190" t="s">
-        <v>193</v>
+        <v>57</v>
       </c>
       <c r="C190">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="D190" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E190" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F190" t="s">
         <v>11</v>
       </c>
       <c r="G190" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B191" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="C191">
-        <v>0.25</v>
+        <v>6</v>
       </c>
       <c r="D191" t="s">
         <v>9</v>
       </c>
       <c r="E191" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F191" t="s">
         <v>11</v>
       </c>
       <c r="G191" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B192" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="C192">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D192" t="s">
         <v>9</v>
       </c>
       <c r="E192" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F192" t="s">
         <v>11</v>
       </c>
       <c r="G192" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B193" t="s">
-        <v>77</v>
+        <v>191</v>
       </c>
       <c r="C193">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D193" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E193" t="s">
         <v>18</v>
       </c>
       <c r="F193" t="s">
-        <v>11</v>
+        <v>154</v>
       </c>
       <c r="G193" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B194" t="s">
-        <v>195</v>
+        <v>41</v>
       </c>
       <c r="C194">
         <v>1</v>
@@ -5459,90 +5557,90 @@
         <v>16</v>
       </c>
       <c r="E194" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F194" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G194" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="C195">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="D195" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="E195" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F195" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="G195" t="s">
-        <v>196</v>
+        <v>146</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B196" t="s">
-        <v>89</v>
+        <v>194</v>
       </c>
       <c r="C196">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="D196" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="E196" t="s">
         <v>18</v>
       </c>
       <c r="F196" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G196" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B197" t="s">
-        <v>198</v>
+        <v>119</v>
       </c>
       <c r="C197">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="D197" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E197" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F197" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G197" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B198" t="s">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="C198">
         <v>1</v>
@@ -5551,21 +5649,21 @@
         <v>16</v>
       </c>
       <c r="E198" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F198" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G198" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B199" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="C199">
         <v>1</v>
@@ -5574,90 +5672,90 @@
         <v>16</v>
       </c>
       <c r="E199" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="F199" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G199" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B200" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C200">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D200" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E200" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G200" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B201" t="s">
-        <v>19</v>
+        <v>161</v>
       </c>
       <c r="C201">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D201" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E201" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F201" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G201" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B202" t="s">
-        <v>165</v>
+        <v>196</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
       <c r="D202" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="E202" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F202" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="G202" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B203" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C203">
         <v>1</v>
@@ -5666,44 +5764,44 @@
         <v>62</v>
       </c>
       <c r="E203" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="F203" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G203" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
+        <v>198</v>
+      </c>
+      <c r="B204" t="s">
         <v>199</v>
       </c>
-      <c r="B204" t="s">
-        <v>201</v>
-      </c>
       <c r="C204">
         <v>1</v>
       </c>
       <c r="D204" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="E204" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="F204" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="G204" t="s">
-        <v>196</v>
+        <v>146</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B205" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C205">
         <v>1</v>
@@ -5712,21 +5810,21 @@
         <v>16</v>
       </c>
       <c r="E205" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F205" t="s">
         <v>11</v>
       </c>
       <c r="G205" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B206" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C206">
         <v>1</v>
@@ -5735,13 +5833,13 @@
         <v>16</v>
       </c>
       <c r="E206" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F206" t="s">
         <v>11</v>
       </c>
       <c r="G206" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.35">
@@ -5749,7 +5847,7 @@
         <v>202</v>
       </c>
       <c r="B207" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C207">
         <v>1</v>
@@ -5758,21 +5856,21 @@
         <v>16</v>
       </c>
       <c r="E207" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F207" t="s">
         <v>11</v>
       </c>
       <c r="G207" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B208" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C208">
         <v>1</v>
@@ -5787,15 +5885,15 @@
         <v>11</v>
       </c>
       <c r="G208" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B209" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C209">
         <v>1</v>
@@ -5804,21 +5902,21 @@
         <v>16</v>
       </c>
       <c r="E209" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F209" t="s">
         <v>11</v>
       </c>
       <c r="G209" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B210" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C210">
         <v>1</v>
@@ -5827,21 +5925,21 @@
         <v>16</v>
       </c>
       <c r="E210" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F210" t="s">
         <v>11</v>
       </c>
       <c r="G210" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B211" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C211">
         <v>1</v>
@@ -5856,15 +5954,15 @@
         <v>11</v>
       </c>
       <c r="G211" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B212" t="s">
-        <v>209</v>
+        <v>103</v>
       </c>
       <c r="C212">
         <v>1</v>
@@ -5873,44 +5971,44 @@
         <v>16</v>
       </c>
       <c r="E212" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F212" t="s">
-        <v>11</v>
-      </c>
-      <c r="G212" t="s">
-        <v>150</v>
+        <v>154</v>
+      </c>
+      <c r="G212" s="2" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B213" t="s">
-        <v>38</v>
+        <v>209</v>
       </c>
       <c r="C213">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="D213" t="s">
         <v>31</v>
       </c>
       <c r="E213" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F213" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G213" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B214" t="s">
-        <v>49</v>
+        <v>168</v>
       </c>
       <c r="C214">
         <v>200</v>
@@ -5919,10 +6017,10 @@
         <v>31</v>
       </c>
       <c r="E214" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F214" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G214" t="s">
         <v>211</v>
@@ -5930,82 +6028,82 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B215" t="s">
-        <v>17</v>
+        <v>212</v>
       </c>
       <c r="C215">
-        <v>0.5</v>
+        <v>15</v>
       </c>
       <c r="D215" t="s">
         <v>9</v>
       </c>
       <c r="E215" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F215" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G215" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B216" t="s">
-        <v>60</v>
+        <v>214</v>
       </c>
       <c r="C216">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="D216" t="s">
         <v>9</v>
       </c>
       <c r="E216" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F216" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G216" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B217" t="s">
-        <v>212</v>
+        <v>15</v>
       </c>
       <c r="C217">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D217" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E217" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F217" t="s">
-        <v>158</v>
-      </c>
-      <c r="G217" t="s">
-        <v>211</v>
+        <v>154</v>
+      </c>
+      <c r="G217" s="2" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="C218">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D218" t="s">
         <v>31</v>
@@ -6014,268 +6112,268 @@
         <v>18</v>
       </c>
       <c r="F218" t="s">
-        <v>158</v>
-      </c>
-      <c r="G218" t="s">
-        <v>211</v>
+        <v>154</v>
+      </c>
+      <c r="G218" s="2" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C219">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D219" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E219" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F219" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G219" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B220" t="s">
-        <v>175</v>
+        <v>206</v>
       </c>
       <c r="C220">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D220" t="s">
         <v>9</v>
       </c>
       <c r="E220" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F220" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G220" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B221" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="C221">
         <v>1</v>
       </c>
       <c r="D221" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E221" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="F221" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G221" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B222" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="C222">
-        <v>4</v>
+        <v>300</v>
       </c>
       <c r="D222" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="E222" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F222" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G222" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B223" t="s">
-        <v>214</v>
+        <v>38</v>
       </c>
       <c r="C223">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="D223" t="s">
         <v>31</v>
       </c>
       <c r="E223" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F223" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G223" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B224" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="C224">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D224" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="E224" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F224" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G224" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B225" t="s">
-        <v>217</v>
+        <v>58</v>
       </c>
       <c r="C225">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D225" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="E225" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F225" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G225" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B226" t="s">
-        <v>172</v>
+        <v>227</v>
       </c>
       <c r="C226">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="D226" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="E226" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F226" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G226" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="B227" t="s">
-        <v>220</v>
+        <v>38</v>
       </c>
       <c r="C227">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="D227" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E227" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F227" t="s">
-        <v>158</v>
-      </c>
-      <c r="G227" t="s">
-        <v>221</v>
+        <v>50</v>
+      </c>
+      <c r="G227" s="2" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="B228" t="s">
-        <v>222</v>
+        <v>77</v>
       </c>
       <c r="C228">
-        <v>3</v>
+        <v>150</v>
       </c>
       <c r="D228" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E228" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F228" t="s">
-        <v>158</v>
+        <v>50</v>
       </c>
       <c r="G228" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="B229" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="C229">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D229" t="s">
         <v>16</v>
       </c>
       <c r="E229" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F229" t="s">
-        <v>158</v>
+        <v>50</v>
       </c>
       <c r="G229" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B230" t="s">
         <v>49</v>
@@ -6290,21 +6388,21 @@
         <v>18</v>
       </c>
       <c r="F230" t="s">
-        <v>158</v>
+        <v>50</v>
       </c>
       <c r="G230" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>60</v>
+        <v>206</v>
       </c>
       <c r="C231">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D231" t="s">
         <v>9</v>
@@ -6313,21 +6411,21 @@
         <v>18</v>
       </c>
       <c r="F231" t="s">
-        <v>158</v>
+        <v>50</v>
       </c>
       <c r="G231" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B232" t="s">
-        <v>212</v>
+        <v>58</v>
       </c>
       <c r="C232">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D232" t="s">
         <v>9</v>
@@ -6336,18 +6434,18 @@
         <v>18</v>
       </c>
       <c r="F232" t="s">
-        <v>158</v>
+        <v>50</v>
       </c>
       <c r="G232" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="B233" t="s">
-        <v>41</v>
+        <v>232</v>
       </c>
       <c r="C233">
         <v>1</v>
@@ -6356,266 +6454,263 @@
         <v>16</v>
       </c>
       <c r="E233" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F233" t="s">
-        <v>158</v>
-      </c>
-      <c r="G233" t="s">
-        <v>229</v>
+        <v>11</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="B234" t="s">
-        <v>230</v>
+        <v>89</v>
       </c>
       <c r="C234">
-        <v>300</v>
+        <v>1440</v>
       </c>
       <c r="D234" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="E234" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="F234" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="G234" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="B235" t="s">
-        <v>38</v>
+        <v>188</v>
       </c>
       <c r="C235">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="D235" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="E235" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F235" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="G235" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="B236" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="C236">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="D236" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="E236" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F236" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="G236" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="B237" t="s">
-        <v>58</v>
+        <v>241</v>
       </c>
       <c r="C237">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D237" t="s">
-        <v>9</v>
+        <v>242</v>
       </c>
       <c r="E237" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F237" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="G237" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="B238" t="s">
-        <v>235</v>
+        <v>42</v>
       </c>
       <c r="C238">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D238" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E238" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F238" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="G238" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B239" t="s">
-        <v>38</v>
+        <v>243</v>
       </c>
       <c r="C239">
-        <v>150</v>
+        <v>0.5</v>
       </c>
       <c r="D239" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="E239" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="F239" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="G239" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>77</v>
+        <v>244</v>
       </c>
       <c r="C240">
-        <v>150</v>
+        <v>227</v>
       </c>
       <c r="D240" t="s">
         <v>31</v>
       </c>
       <c r="E240" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F240" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="G240" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B241" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C241">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D241" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E241" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F241" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="G241" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B242" t="s">
-        <v>49</v>
+        <v>245</v>
       </c>
       <c r="C242">
-        <v>150</v>
+        <v>1</v>
       </c>
       <c r="D242" t="s">
-        <v>31</v>
+        <v>242</v>
       </c>
       <c r="E242" t="s">
         <v>18</v>
       </c>
       <c r="F242" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="G242" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B243" t="s">
-        <v>212</v>
+        <v>246</v>
       </c>
       <c r="C243">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="D243" t="s">
-        <v>9</v>
+        <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F243" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="G243" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B244" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="C244">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="D244" t="s">
-        <v>9</v>
+        <v>242</v>
       </c>
       <c r="E244" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F244" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="G244" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.35">
@@ -6623,22 +6718,1081 @@
         <v>239</v>
       </c>
       <c r="B245" t="s">
+        <v>41</v>
+      </c>
+      <c r="C245">
+        <v>1</v>
+      </c>
+      <c r="D245" t="s">
+        <v>16</v>
+      </c>
+      <c r="E245" t="s">
+        <v>39</v>
+      </c>
+      <c r="F245" t="s">
+        <v>11</v>
+      </c>
+      <c r="G245" t="s">
         <v>240</v>
       </c>
-      <c r="C245">
-        <v>1</v>
-      </c>
-      <c r="D245" t="s">
-        <v>16</v>
-      </c>
-      <c r="E245" t="s">
-        <v>14</v>
-      </c>
-      <c r="F245" t="s">
-        <v>11</v>
-      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A246" t="s">
+        <v>239</v>
+      </c>
+      <c r="B246" t="s">
+        <v>247</v>
+      </c>
+      <c r="C246">
+        <v>680</v>
+      </c>
+      <c r="D246" t="s">
+        <v>31</v>
+      </c>
+      <c r="E246" t="s">
+        <v>21</v>
+      </c>
+      <c r="F246" t="s">
+        <v>11</v>
+      </c>
+      <c r="G246" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A247" t="s">
+        <v>239</v>
+      </c>
+      <c r="B247" t="s">
+        <v>76</v>
+      </c>
+      <c r="C247">
+        <v>8</v>
+      </c>
+      <c r="D247" t="s">
+        <v>16</v>
+      </c>
+      <c r="E247" t="s">
+        <v>21</v>
+      </c>
+      <c r="F247" t="s">
+        <v>11</v>
+      </c>
+      <c r="G247" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A248" t="s">
+        <v>239</v>
+      </c>
+      <c r="B248" t="s">
+        <v>248</v>
+      </c>
+      <c r="C248">
+        <v>170</v>
+      </c>
+      <c r="D248" t="s">
+        <v>31</v>
+      </c>
+      <c r="E248" t="s">
+        <v>21</v>
+      </c>
+      <c r="F248" t="s">
+        <v>11</v>
+      </c>
+      <c r="G248" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A249" t="s">
+        <v>239</v>
+      </c>
+      <c r="B249" t="s">
+        <v>72</v>
+      </c>
+      <c r="C249">
+        <v>4</v>
+      </c>
+      <c r="D249" t="s">
+        <v>16</v>
+      </c>
+      <c r="E249" t="s">
+        <v>21</v>
+      </c>
+      <c r="F249" t="s">
+        <v>11</v>
+      </c>
+      <c r="G249" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A250" t="s">
+        <v>239</v>
+      </c>
+      <c r="B250" t="s">
+        <v>249</v>
+      </c>
+      <c r="C250">
+        <v>397</v>
+      </c>
+      <c r="D250" t="s">
+        <v>31</v>
+      </c>
+      <c r="E250" t="s">
+        <v>21</v>
+      </c>
+      <c r="F250" t="s">
+        <v>11</v>
+      </c>
+      <c r="G250" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A251" t="s">
+        <v>239</v>
+      </c>
+      <c r="B251" t="s">
+        <v>250</v>
+      </c>
+      <c r="C251">
+        <v>0.5</v>
+      </c>
+      <c r="D251" t="s">
+        <v>150</v>
+      </c>
+      <c r="E251" t="s">
+        <v>14</v>
+      </c>
+      <c r="F251" t="s">
+        <v>11</v>
+      </c>
+      <c r="G251" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A252" t="s">
+        <v>239</v>
+      </c>
+      <c r="B252" t="s">
+        <v>15</v>
+      </c>
+      <c r="C252">
+        <v>2</v>
+      </c>
+      <c r="D252" t="s">
+        <v>16</v>
+      </c>
+      <c r="E252" t="s">
+        <v>14</v>
+      </c>
+      <c r="F252" t="s">
+        <v>11</v>
+      </c>
+      <c r="G252" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A253" t="s">
+        <v>239</v>
+      </c>
+      <c r="B253" t="s">
+        <v>251</v>
+      </c>
+      <c r="C253">
+        <v>6</v>
+      </c>
+      <c r="E253" t="s">
+        <v>14</v>
+      </c>
+      <c r="F253" t="s">
+        <v>11</v>
+      </c>
+      <c r="G253" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A254" t="s">
+        <v>239</v>
+      </c>
+      <c r="B254" t="s">
+        <v>252</v>
+      </c>
+      <c r="C254">
+        <v>1</v>
+      </c>
+      <c r="D254" t="s">
+        <v>16</v>
+      </c>
+      <c r="E254" t="s">
+        <v>18</v>
+      </c>
+      <c r="F254" t="s">
+        <v>11</v>
+      </c>
+      <c r="G254" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A255" t="s">
+        <v>254</v>
+      </c>
+      <c r="B255" t="s">
+        <v>23</v>
+      </c>
+      <c r="C255">
+        <v>1</v>
+      </c>
+      <c r="D255" t="s">
+        <v>16</v>
+      </c>
+      <c r="E255" t="s">
+        <v>14</v>
+      </c>
+      <c r="F255" t="s">
+        <v>11</v>
+      </c>
+      <c r="G255" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A256" t="s">
+        <v>254</v>
+      </c>
+      <c r="B256" t="s">
+        <v>250</v>
+      </c>
+      <c r="C256">
+        <v>0.5</v>
+      </c>
+      <c r="D256" t="s">
+        <v>150</v>
+      </c>
+      <c r="E256" t="s">
+        <v>14</v>
+      </c>
+      <c r="F256" t="s">
+        <v>11</v>
+      </c>
+      <c r="G256" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A257" t="s">
+        <v>254</v>
+      </c>
+      <c r="B257" t="s">
+        <v>15</v>
+      </c>
+      <c r="C257">
+        <v>5</v>
+      </c>
+      <c r="D257" t="s">
+        <v>16</v>
+      </c>
+      <c r="E257" t="s">
+        <v>14</v>
+      </c>
+      <c r="F257" t="s">
+        <v>11</v>
+      </c>
+      <c r="G257" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A258" t="s">
+        <v>254</v>
+      </c>
+      <c r="B258" t="s">
+        <v>255</v>
+      </c>
+      <c r="C258">
+        <v>6</v>
+      </c>
+      <c r="D258" t="s">
+        <v>256</v>
+      </c>
+      <c r="E258" t="s">
+        <v>14</v>
+      </c>
+      <c r="F258" t="s">
+        <v>11</v>
+      </c>
+      <c r="G258" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A259" t="s">
+        <v>254</v>
+      </c>
+      <c r="B259" t="s">
+        <v>257</v>
+      </c>
+      <c r="C259">
+        <v>1</v>
+      </c>
+      <c r="D259" t="s">
+        <v>258</v>
+      </c>
+      <c r="E259" t="s">
+        <v>14</v>
+      </c>
+      <c r="F259" t="s">
+        <v>11</v>
+      </c>
+      <c r="G259" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A260" t="s">
+        <v>254</v>
+      </c>
+      <c r="B260" t="s">
+        <v>259</v>
+      </c>
+      <c r="C260">
+        <v>1</v>
+      </c>
+      <c r="D260" t="s">
+        <v>74</v>
+      </c>
+      <c r="E260" t="s">
+        <v>14</v>
+      </c>
+      <c r="F260" t="s">
+        <v>11</v>
+      </c>
+      <c r="G260" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A261" t="s">
+        <v>254</v>
+      </c>
+      <c r="B261" t="s">
+        <v>260</v>
+      </c>
+      <c r="C261">
+        <v>2</v>
+      </c>
+      <c r="D261" t="s">
+        <v>74</v>
+      </c>
+      <c r="E261" t="s">
+        <v>14</v>
+      </c>
+      <c r="F261" t="s">
+        <v>11</v>
+      </c>
+      <c r="G261" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A262" t="s">
+        <v>254</v>
+      </c>
+      <c r="B262" t="s">
+        <v>261</v>
+      </c>
+      <c r="C262">
+        <v>2</v>
+      </c>
+      <c r="D262" t="s">
+        <v>262</v>
+      </c>
+      <c r="E262" t="s">
+        <v>14</v>
+      </c>
+      <c r="F262" t="s">
+        <v>11</v>
+      </c>
+      <c r="G262" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A263" t="s">
+        <v>254</v>
+      </c>
+      <c r="B263" t="s">
+        <v>249</v>
+      </c>
+      <c r="C263">
+        <v>1</v>
+      </c>
+      <c r="D263" t="s">
+        <v>16</v>
+      </c>
+      <c r="E263" t="s">
+        <v>21</v>
+      </c>
+      <c r="F263" t="s">
+        <v>11</v>
+      </c>
+      <c r="G263" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A264" t="s">
+        <v>254</v>
+      </c>
+      <c r="B264" t="s">
+        <v>263</v>
+      </c>
+      <c r="C264">
+        <v>454</v>
+      </c>
+      <c r="D264" t="s">
+        <v>31</v>
+      </c>
+      <c r="E264" t="s">
+        <v>21</v>
+      </c>
+      <c r="F264" t="s">
+        <v>11</v>
+      </c>
+      <c r="G264" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A265" t="s">
+        <v>254</v>
+      </c>
+      <c r="B265" t="s">
+        <v>103</v>
+      </c>
+      <c r="C265">
+        <v>1</v>
+      </c>
+      <c r="D265" t="s">
+        <v>16</v>
+      </c>
+      <c r="E265" t="s">
+        <v>14</v>
+      </c>
+      <c r="F265" t="s">
+        <v>11</v>
+      </c>
+      <c r="G265" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A266" t="s">
+        <v>254</v>
+      </c>
+      <c r="B266" t="s">
+        <v>251</v>
+      </c>
+      <c r="C266">
+        <v>4</v>
+      </c>
+      <c r="D266" t="s">
+        <v>16</v>
+      </c>
+      <c r="E266" t="s">
+        <v>14</v>
+      </c>
+      <c r="F266" t="s">
+        <v>11</v>
+      </c>
+      <c r="G266" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A267" t="s">
+        <v>254</v>
+      </c>
+      <c r="B267" t="s">
+        <v>42</v>
+      </c>
+      <c r="C267">
+        <v>2</v>
+      </c>
+      <c r="D267" t="s">
+        <v>16</v>
+      </c>
+      <c r="E267" t="s">
+        <v>14</v>
+      </c>
+      <c r="F267" t="s">
+        <v>11</v>
+      </c>
+      <c r="G267" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A268" t="s">
+        <v>254</v>
+      </c>
+      <c r="B268" t="s">
+        <v>188</v>
+      </c>
+      <c r="C268">
+        <v>2</v>
+      </c>
+      <c r="D268" t="s">
+        <v>242</v>
+      </c>
+      <c r="E268" t="s">
+        <v>27</v>
+      </c>
+      <c r="F268" t="s">
+        <v>11</v>
+      </c>
+      <c r="G268" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A269" t="s">
+        <v>254</v>
+      </c>
+      <c r="B269" t="s">
+        <v>104</v>
+      </c>
+      <c r="C269">
+        <v>1</v>
+      </c>
+      <c r="D269" t="s">
+        <v>242</v>
+      </c>
+      <c r="E269" t="s">
+        <v>27</v>
+      </c>
+      <c r="F269" t="s">
+        <v>11</v>
+      </c>
+      <c r="G269" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A270" t="s">
+        <v>254</v>
+      </c>
+      <c r="B270" t="s">
+        <v>264</v>
+      </c>
+      <c r="C270">
+        <v>6</v>
+      </c>
+      <c r="D270" t="s">
+        <v>242</v>
+      </c>
+      <c r="E270" t="s">
+        <v>27</v>
+      </c>
+      <c r="F270" t="s">
+        <v>11</v>
+      </c>
+      <c r="G270" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A271" t="s">
+        <v>265</v>
+      </c>
+      <c r="B271" t="s">
+        <v>72</v>
+      </c>
+      <c r="C271">
+        <v>680</v>
+      </c>
+      <c r="D271" t="s">
+        <v>31</v>
+      </c>
+      <c r="E271" t="s">
+        <v>21</v>
+      </c>
+      <c r="F271" t="s">
+        <v>11</v>
+      </c>
+      <c r="G271" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A272" t="s">
+        <v>265</v>
+      </c>
+      <c r="B272" t="s">
+        <v>23</v>
+      </c>
+      <c r="C272">
+        <v>2</v>
+      </c>
+      <c r="D272" t="s">
+        <v>16</v>
+      </c>
+      <c r="E272" t="s">
+        <v>14</v>
+      </c>
+      <c r="F272" t="s">
+        <v>11</v>
+      </c>
+      <c r="G272" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A273" t="s">
+        <v>265</v>
+      </c>
+      <c r="B273" t="s">
+        <v>95</v>
+      </c>
+      <c r="C273">
+        <v>2</v>
+      </c>
+      <c r="D273" t="s">
+        <v>16</v>
+      </c>
+      <c r="E273" t="s">
+        <v>14</v>
+      </c>
+      <c r="F273" t="s">
+        <v>11</v>
+      </c>
+      <c r="G273" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A274" t="s">
+        <v>265</v>
+      </c>
+      <c r="B274" t="s">
+        <v>268</v>
+      </c>
+      <c r="C274">
+        <v>3</v>
+      </c>
+      <c r="D274" t="s">
+        <v>16</v>
+      </c>
+      <c r="E274" t="s">
+        <v>14</v>
+      </c>
+      <c r="F274" t="s">
+        <v>11</v>
+      </c>
+      <c r="G274" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A275" t="s">
+        <v>265</v>
+      </c>
+      <c r="B275" t="s">
+        <v>13</v>
+      </c>
+      <c r="C275">
+        <v>1</v>
+      </c>
+      <c r="D275" t="s">
+        <v>16</v>
+      </c>
+      <c r="E275" t="s">
+        <v>14</v>
+      </c>
+      <c r="F275" t="s">
+        <v>11</v>
+      </c>
+      <c r="G275" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A276" t="s">
+        <v>265</v>
+      </c>
+      <c r="B276" t="s">
+        <v>42</v>
+      </c>
+      <c r="C276">
+        <v>2</v>
+      </c>
+      <c r="D276" t="s">
+        <v>16</v>
+      </c>
+      <c r="E276" t="s">
+        <v>14</v>
+      </c>
+      <c r="F276" t="s">
+        <v>11</v>
+      </c>
+      <c r="G276" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A277" t="s">
+        <v>265</v>
+      </c>
+      <c r="B277" t="s">
+        <v>269</v>
+      </c>
+      <c r="C277">
+        <v>1</v>
+      </c>
+      <c r="D277" t="s">
+        <v>16</v>
+      </c>
+      <c r="E277" t="s">
+        <v>56</v>
+      </c>
+      <c r="F277" t="s">
+        <v>11</v>
+      </c>
+      <c r="G277" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A278" t="s">
+        <v>265</v>
+      </c>
+      <c r="B278" t="s">
+        <v>89</v>
+      </c>
+      <c r="C278">
+        <v>1</v>
+      </c>
+      <c r="D278" t="s">
+        <v>270</v>
+      </c>
+      <c r="E278" t="s">
+        <v>18</v>
+      </c>
+      <c r="F278" t="s">
+        <v>11</v>
+      </c>
+      <c r="G278" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A279" t="s">
+        <v>265</v>
+      </c>
+      <c r="B279" t="s">
+        <v>234</v>
+      </c>
+      <c r="C279">
+        <v>1</v>
+      </c>
+      <c r="D279" t="s">
+        <v>242</v>
+      </c>
+      <c r="E279" t="s">
+        <v>18</v>
+      </c>
+      <c r="F279" t="s">
+        <v>11</v>
+      </c>
+      <c r="G279" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A280" t="s">
+        <v>265</v>
+      </c>
+      <c r="B280" t="s">
+        <v>35</v>
+      </c>
+      <c r="C280">
+        <v>1</v>
+      </c>
+      <c r="D280" t="s">
+        <v>242</v>
+      </c>
+      <c r="E280" t="s">
+        <v>27</v>
+      </c>
+      <c r="F280" t="s">
+        <v>11</v>
+      </c>
+      <c r="G280" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A281" t="s">
+        <v>265</v>
+      </c>
+      <c r="B281" t="s">
+        <v>271</v>
+      </c>
+      <c r="C281">
+        <v>1</v>
+      </c>
+      <c r="D281" t="s">
+        <v>242</v>
+      </c>
+      <c r="E281" t="s">
+        <v>18</v>
+      </c>
+      <c r="F281" t="s">
+        <v>11</v>
+      </c>
+      <c r="G281" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A282" t="s">
+        <v>265</v>
+      </c>
+      <c r="B282" t="s">
+        <v>272</v>
+      </c>
+      <c r="C282">
+        <v>1</v>
+      </c>
+      <c r="D282" t="s">
+        <v>74</v>
+      </c>
+      <c r="E282" t="s">
+        <v>27</v>
+      </c>
+      <c r="F282" t="s">
+        <v>11</v>
+      </c>
+      <c r="G282" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A283" t="s">
+        <v>273</v>
+      </c>
+      <c r="B283" t="s">
+        <v>266</v>
+      </c>
+      <c r="C283">
+        <v>1</v>
+      </c>
+      <c r="D283" t="s">
+        <v>16</v>
+      </c>
+      <c r="E283" t="s">
+        <v>14</v>
+      </c>
+      <c r="F283" t="s">
+        <v>11</v>
+      </c>
+      <c r="G283" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A284" t="s">
+        <v>273</v>
+      </c>
+      <c r="B284" t="s">
+        <v>72</v>
+      </c>
+      <c r="C284">
+        <v>283</v>
+      </c>
+      <c r="D284" t="s">
+        <v>31</v>
+      </c>
+      <c r="E284" t="s">
+        <v>21</v>
+      </c>
+      <c r="F284" t="s">
+        <v>11</v>
+      </c>
+      <c r="G284" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A285" t="s">
+        <v>273</v>
+      </c>
+      <c r="B285" t="s">
+        <v>188</v>
+      </c>
+      <c r="C285">
+        <v>1</v>
+      </c>
+      <c r="D285" t="s">
+        <v>242</v>
+      </c>
+      <c r="E285" t="s">
+        <v>27</v>
+      </c>
+      <c r="F285" t="s">
+        <v>11</v>
+      </c>
+      <c r="G285" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A286" t="s">
+        <v>273</v>
+      </c>
+      <c r="B286" t="s">
+        <v>41</v>
+      </c>
+      <c r="C286">
+        <v>4</v>
+      </c>
+      <c r="D286" t="s">
+        <v>16</v>
+      </c>
+      <c r="E286" t="s">
+        <v>39</v>
+      </c>
+      <c r="F286" t="s">
+        <v>11</v>
+      </c>
+      <c r="G286" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A287" t="s">
+        <v>273</v>
+      </c>
+      <c r="B287" t="s">
+        <v>274</v>
+      </c>
+      <c r="C287">
+        <v>120</v>
+      </c>
+      <c r="D287" t="s">
+        <v>82</v>
+      </c>
+      <c r="E287" t="s">
+        <v>27</v>
+      </c>
+      <c r="F287" t="s">
+        <v>11</v>
+      </c>
+      <c r="G287" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A288" t="s">
+        <v>273</v>
+      </c>
+      <c r="B288" t="s">
+        <v>104</v>
+      </c>
+      <c r="C288">
+        <v>2</v>
+      </c>
+      <c r="D288" t="s">
+        <v>242</v>
+      </c>
+      <c r="E288" t="s">
+        <v>27</v>
+      </c>
+      <c r="F288" t="s">
+        <v>11</v>
+      </c>
+      <c r="G288" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A289" t="s">
+        <v>273</v>
+      </c>
+      <c r="B289" t="s">
+        <v>77</v>
+      </c>
+      <c r="C289">
+        <v>2</v>
+      </c>
+      <c r="D289" t="s">
+        <v>242</v>
+      </c>
+      <c r="E289" t="s">
+        <v>18</v>
+      </c>
+      <c r="F289" t="s">
+        <v>11</v>
+      </c>
+      <c r="G289" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A290" t="s">
+        <v>273</v>
+      </c>
+      <c r="B290" t="s">
+        <v>200</v>
+      </c>
+      <c r="C290">
+        <v>1</v>
+      </c>
+      <c r="D290" t="s">
+        <v>16</v>
+      </c>
+      <c r="E290" t="s">
+        <v>18</v>
+      </c>
+      <c r="F290" t="s">
+        <v>11</v>
+      </c>
+      <c r="G290" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B291" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{D9C3144D-755E-4618-A98F-680F297B77AF}"/>
+    <hyperlink ref="G18" r:id="rId2" xr:uid="{822556CE-1F3D-431E-ADCE-2F81A41BA0AE}"/>
+    <hyperlink ref="G44" r:id="rId3" xr:uid="{2238FAB6-CA88-4070-BE5C-1AE3025EE464}"/>
+    <hyperlink ref="G71" r:id="rId4" xr:uid="{D29D6733-B855-4E07-B607-7B86498F23C8}"/>
+    <hyperlink ref="G72" r:id="rId5" xr:uid="{5DA8AC38-5E3E-44CB-A1DE-C2996813769F}"/>
+    <hyperlink ref="G96" r:id="rId6" xr:uid="{72F031F4-424E-44C2-81AC-3FF7A878F3C1}"/>
+    <hyperlink ref="G107" r:id="rId7" xr:uid="{7944A810-3844-48D3-870D-4B1F8F038FC1}"/>
+    <hyperlink ref="G132" r:id="rId8" xr:uid="{F6117F2B-E077-4E07-8D91-FDDCC8AE0A82}"/>
+    <hyperlink ref="G143" r:id="rId9" xr:uid="{6C863371-D3EA-4FF0-84BB-8B6878AEE0E0}"/>
+    <hyperlink ref="G153" r:id="rId10" xr:uid="{35AC16A4-B449-4637-A104-F179A98E1A5F}"/>
+    <hyperlink ref="G159" r:id="rId11" xr:uid="{C9A011B3-FEE5-48D2-A287-23A6AEDDBF1B}"/>
+    <hyperlink ref="G183" r:id="rId12" xr:uid="{84A0A0E2-6EFC-4652-9861-3174114D7C34}"/>
+    <hyperlink ref="G212" r:id="rId13" location="wprm-recipe-container-58094" xr:uid="{495778FB-B55F-49AF-8D67-557893E3D857}"/>
+    <hyperlink ref="G217" r:id="rId14" location="wprm-recipe-container-58099" xr:uid="{2CFFCE9D-4E74-4C1B-B516-1ABF9CF7EB1B}"/>
+    <hyperlink ref="G218" r:id="rId15" location="wprm-recipe-container-59406" xr:uid="{B14B22C5-8068-4ACA-B132-168CFA31864E}"/>
+    <hyperlink ref="G227" r:id="rId16" xr:uid="{281942EF-BB3E-4ADE-841C-A5FC9229461D}"/>
+    <hyperlink ref="G255" r:id="rId17" xr:uid="{4D016A0E-CF04-4CDD-BFE7-1B1D44EDF185}"/>
+    <hyperlink ref="G256:G270" r:id="rId18" display="https://www.justonecookbook.com/sesame-miso-hot-pot/" xr:uid="{AEE107A2-17A1-4A85-AB39-FFD023F9642E}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>